--- a/forecast_summary_B09ZKHW4M7.xlsx
+++ b/forecast_summary_B09ZKHW4M7.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,748 +428,708 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Prophet Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
+      <c r="A2" s="1" t="n">
+        <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>14</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Week 0 (December 01-7)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>18</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Week 1 (December 08-14)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
+      <c r="A4" s="1" t="n">
+        <v>45641</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>19</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Week 2 (December 15-21)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B5" t="n">
         <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>19</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Week 3 (December 22-28)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
       <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Week 4 (December 29-4)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>45662</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45669</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Week 5 (January 05-11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Week 6 (January 12-18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Week 7 (January 19-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Week 8 (January 26-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Week 9 (February 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Week 10 (February 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Week 11 (February 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Week 12 (February 23-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Week 13 (March 02-8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Week 14 (March 09-15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Week 15 (March 16-22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Week 16 (March 23-29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Week 17 (March 30-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Week 18 (April 06-12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Week 19 (April 13-19)</t>
-        </is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1255,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1267,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1279,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1315,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1327,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B09ZKHW4M7.xlsx
+++ b/forecast_summary_B09ZKHW4M7.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +438,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
@@ -477,32 +482,35 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>-7.258360822819287</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.315006186342956</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,32 +518,35 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.58295709433603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.45035168294741</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>18</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -543,32 +554,35 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.497061885867383</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.38787760799006</v>
+      </c>
+      <c r="E4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -576,32 +590,35 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.5382024690364776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.72939325990743</v>
+      </c>
+      <c r="E5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>19</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -609,32 +626,35 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
+        <v>-0.7938161456831436</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.8804333280578</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -642,32 +662,35 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>-1.787063145966003</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>14.10446859401665</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,32 +698,35 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
+        <v>-1.630188897989904</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.44029209432721</v>
+      </c>
+      <c r="E8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
       <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,32 +734,35 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>-0.7940121577970137</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>15.24664706540332</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,32 +770,35 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>-1.747578273728072</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>15.14399114688446</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -774,32 +806,35 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>-5.598607655740644</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>10.50287475208083</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -807,32 +842,35 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>-9.964250104608873</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>6.753295430084814</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -840,32 +878,35 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>-11.13335688579168</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>5.843954700658918</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,32 +914,35 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>-8.249569649239804</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>8.874880771616692</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -906,32 +950,35 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>-4.460188602319715</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>11.4391727046419</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -939,32 +986,35 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>-3.510713730473907</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>12.9297332637859</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -972,32 +1022,35 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>-5.82787947568253</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>9.784635399236537</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1005,32 +1058,35 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>-8.670783807116646</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>8.304200189583137</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1038,32 +1094,35 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>-9.756416969736671</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>7.652406346274798</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1071,32 +1130,35 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>-9.565922569455301</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>6.788598356459361</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1104,32 +1166,35 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>-9.674463130607162</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>6.973368324542291</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B09ZKHW4M7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>G27F 2 US</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B09ZKHW4M7</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>G27F 2 US</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1392,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
